--- a/Data_preparation/datasets/final_data/Shutterstock_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Shutterstock_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>11.40454674014372</v>
+        <v>56.68370742830358</v>
       </c>
       <c r="E2">
-        <v>11.25329399108887</v>
+        <v>55.15546798706055</v>
       </c>
       <c r="F2">
-        <v>11.646553599544</v>
+        <v>60.72087078787232</v>
       </c>
       <c r="G2">
-        <v>10.79953140113752</v>
+        <v>54.27285445170207</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>35474129</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>2449063773</v>
@@ -840,22 +777,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>19705.44771228903</v>
+        <v>48.47863105179211</v>
       </c>
       <c r="E3">
-        <v>18415.580078125</v>
+        <v>43.66509246826172</v>
       </c>
       <c r="F3">
-        <v>20373.69239022943</v>
+        <v>48.67476983941955</v>
       </c>
       <c r="G3">
-        <v>18260.1743390691</v>
+        <v>39.11307018988773</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>35474129</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2103008490</v>
@@ -965,22 +902,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>754.2077893284245</v>
+        <v>24.7541709597851</v>
       </c>
       <c r="E4">
-        <v>754.7066040039062</v>
+        <v>23.27496719360352</v>
       </c>
       <c r="F4">
-        <v>768.1746002419138</v>
+        <v>28.11302387092217</v>
       </c>
       <c r="G4">
-        <v>727.601031587557</v>
+        <v>22.4740733185362</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>35474129</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1090085230</v>
@@ -1090,22 +1027,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>25.83293026294953</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>23.61003875732422</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>27.11599549060297</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>22.63752528237314</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>35474129</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1166915068</v>
@@ -1206,22 +1143,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>11.19978539931328</v>
+        <v>29.59223320340016</v>
       </c>
       <c r="E6">
-        <v>11.3136043548584</v>
+        <v>33.52315521240234</v>
       </c>
       <c r="F6">
-        <v>11.83261851426581</v>
+        <v>35.38645974944534</v>
       </c>
       <c r="G6">
-        <v>10.98580520713185</v>
+        <v>29.21630388759681</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>35474129</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1295952634</v>
@@ -1331,22 +1268,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>17.48999977111816</v>
+        <v>37.26610459661102</v>
       </c>
       <c r="E7">
-        <v>18.72999954223633</v>
+        <v>45.02170562744141</v>
       </c>
       <c r="F7">
-        <v>18.8700008392334</v>
+        <v>47.23642301160957</v>
       </c>
       <c r="G7">
-        <v>16.79999923706055</v>
+        <v>36.78393336560024</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>35474129</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1602806953</v>
@@ -1456,22 +1393,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>8.69158867261447</v>
+        <v>52.13168587628555</v>
       </c>
       <c r="E8">
-        <v>9.01453971862793</v>
+        <v>48.20893859863281</v>
       </c>
       <c r="F8">
-        <v>9.435779708844802</v>
+        <v>52.96526706186381</v>
       </c>
       <c r="G8">
-        <v>8.331194091753382</v>
+        <v>47.71042222072429</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>35474129</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>2230537928</v>
@@ -1581,22 +1518,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>39.16210769653555</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>43.96747589111328</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>44.23716636986193</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>38.55735233043603</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>35474129</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>1669306938</v>
@@ -1706,22 +1643,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>9.769573715804048</v>
+        <v>33.91543421411985</v>
       </c>
       <c r="E10">
-        <v>9.667807579040527</v>
+        <v>35.32925796508789</v>
       </c>
       <c r="F10">
-        <v>9.973106636344406</v>
+        <v>35.9013261536495</v>
       </c>
       <c r="G10">
-        <v>9.396430782995594</v>
+        <v>33.56402103189718</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>35474129</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1427039402</v>
@@ -1831,22 +1768,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>804.4902529480636</v>
+        <v>36.28541570563405</v>
       </c>
       <c r="E11">
-        <v>793.3997192382812</v>
+        <v>34.43845367431641</v>
       </c>
       <c r="F11">
-        <v>875.2990450951361</v>
+        <v>37.38868719554388</v>
       </c>
       <c r="G11">
-        <v>749.0375843991515</v>
+        <v>34.20145359744049</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>35474129</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1523671925</v>
@@ -1956,22 +1893,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>27.22223797155721</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>31.86415672302246</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>34.90428432629136</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>26.88717003536962</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>35474129</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1152791387</v>
@@ -2081,22 +2018,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>35.25569450915763</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>36.17100143432617</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>39.52985465641906</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>35.21483317739042</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>35474129</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1492062969</v>
@@ -2206,22 +2143,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>39.13757829452138</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>34.43845367431641</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>42.61901845460596</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>34.16059226772524</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>35474129</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1673012052</v>
@@ -2331,22 +2268,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>38.73713708914858</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>37.65020751953125</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>42.18588419399941</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>37.29062341461182</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>35474129</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1655755292</v>
@@ -2444,22 +2381,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>47.65695943814214</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>35.422119140625</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>48.12486492410298</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>32.1467840442968</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>35474129</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1908328461</v>
@@ -2569,22 +2506,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>30.6304226965719</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>34.66826629638672</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>36.12396988052056</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>29.37401473757547</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>35474129</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>1261680317</v>
@@ -2694,22 +2631,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>40.72503587182806</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>35.04952621459961</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>41.88613277145352</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>32.8399770571012</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>35474129</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1635832113</v>
@@ -2822,22 +2759,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>34.44298406864268</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>33.24722671508789</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>34.93688319840273</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>31.97348841984246</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>35474129</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1380100501</v>
@@ -2938,22 +2875,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>60.76406463044493</v>
+        <v>31.48825087268828</v>
       </c>
       <c r="E20">
-        <v>59.60836791992188</v>
+        <v>35.16217041015625</v>
       </c>
       <c r="F20">
-        <v>61.14327406172586</v>
+        <v>35.90734913160824</v>
       </c>
       <c r="G20">
-        <v>56.1412984537168</v>
+        <v>29.40000983031588</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>35474129</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1274845611</v>
@@ -3066,22 +3003,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>37.35439215994818</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>37.54502105712891</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>39.26933466298065</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>36.44457813272712</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>35474129</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1520378836</v>
@@ -3194,22 +3131,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>12.41129859768217</v>
+        <v>27.31375852517522</v>
       </c>
       <c r="E22">
-        <v>16.23237037658691</v>
+        <v>33.07593536376953</v>
       </c>
       <c r="F22">
-        <v>17.16704825563687</v>
+        <v>34.6949158891527</v>
       </c>
       <c r="G22">
-        <v>12.05887897968325</v>
+        <v>25.33790785861263</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>35474129</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1141836523</v>
@@ -3322,22 +3259,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>970.3393129824782</v>
+        <v>30.57062351176283</v>
       </c>
       <c r="E23">
-        <v>1088.628295898438</v>
+        <v>47.51738357543945</v>
       </c>
       <c r="F23">
-        <v>1118.200541627427</v>
+        <v>47.93711714740178</v>
       </c>
       <c r="G23">
-        <v>950.0083940437976</v>
+        <v>30.37824770945463</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>35474129</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1246017049</v>
@@ -3450,22 +3387,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>12.7733873356874</v>
+        <v>45.87541563538974</v>
       </c>
       <c r="E24">
-        <v>15.52035236358643</v>
+        <v>57.4210319519043</v>
       </c>
       <c r="F24">
-        <v>17.30587870681586</v>
+        <v>62.67622389770459</v>
       </c>
       <c r="G24">
-        <v>12.68182262753309</v>
+        <v>45.10336717387623</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>35474129</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>1857602407</v>
@@ -3578,22 +3515,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>63.97114315621747</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>57.15541076660156</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>67.77916041131625</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>57.14662110415512</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>35474129</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2597170888</v>
@@ -3706,22 +3643,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2516.34996159507</v>
+        <v>78.87658762310899</v>
       </c>
       <c r="E26">
-        <v>2790.17041015625</v>
+        <v>76.85772705078125</v>
       </c>
       <c r="F26">
-        <v>2807.159270103477</v>
+        <v>92.18871835411004</v>
       </c>
       <c r="G26">
-        <v>2503.838146397838</v>
+        <v>76.12599897141048</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>35474129</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>3228246349</v>
@@ -3834,22 +3771,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>40.06459571156605</v>
+        <v>86.9186214789853</v>
       </c>
       <c r="E27">
-        <v>40.04537963867188</v>
+        <v>95.86053466796876</v>
       </c>
       <c r="F27">
-        <v>40.5353766696543</v>
+        <v>96.27582242903752</v>
       </c>
       <c r="G27">
-        <v>36.25990124070713</v>
+        <v>85.16027513993899</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>35474129</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>3588616425</v>
@@ -3962,22 +3899,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>51.72000122070312</v>
+        <v>100.5588904896665</v>
       </c>
       <c r="E28">
-        <v>45.22999954223633</v>
+        <v>107.2421646118164</v>
       </c>
       <c r="F28">
-        <v>53.2400016784668</v>
+        <v>113.6244667078085</v>
       </c>
       <c r="G28">
-        <v>43.54000091552734</v>
+        <v>98.5406321213258</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>35474129</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>4150099436</v>
@@ -4090,22 +4027,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>98.5805734042838</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>85.99638366699219</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>99.0239908663052</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>74.24582092342513</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>35474129</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>4052579066</v>
@@ -4218,22 +4155,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>564.8420934999623</v>
+        <v>83.49962549937156</v>
       </c>
       <c r="E30">
-        <v>567.5840454101562</v>
+        <v>67.33324432373047</v>
       </c>
       <c r="F30">
-        <v>568.4980293802209</v>
+        <v>84.80680919924085</v>
       </c>
       <c r="G30">
-        <v>487.1534560444658</v>
+        <v>65.27910238642835</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>35474129</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>3384127990</v>
@@ -4346,22 +4283,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>990.9535599144536</v>
+        <v>50.98776527883513</v>
       </c>
       <c r="E31">
-        <v>932.830322265625</v>
+        <v>50.44315719604492</v>
       </c>
       <c r="F31">
-        <v>1065.275076908038</v>
+        <v>56.34456073328239</v>
       </c>
       <c r="G31">
-        <v>932.830322265625</v>
+        <v>44.67567490747216</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>35474129</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2076759147</v>
@@ -4474,22 +4411,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>3829.951036061672</v>
+        <v>45.4070422242993</v>
       </c>
       <c r="E32">
-        <v>3718.19677734375</v>
+        <v>44.86007690429688</v>
       </c>
       <c r="F32">
-        <v>4026.941593801738</v>
+        <v>48.41983233936182</v>
       </c>
       <c r="G32">
-        <v>3570.453859038701</v>
+        <v>40.99545914188635</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>35474129</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1804536635</v>
@@ -4602,22 +4539,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>48.73925721882901</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>67.81153106689453</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>70.84760196017547</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>47.44194732157453</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>35474129</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>1888169436</v>
@@ -4730,22 +4667,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>4646.163088703966</v>
+        <v>65.15347619411369</v>
       </c>
       <c r="E34">
-        <v>4397.0390625</v>
+        <v>60.57844924926758</v>
       </c>
       <c r="F34">
-        <v>4647.12125803552</v>
+        <v>68.67968581362894</v>
       </c>
       <c r="G34">
-        <v>4224.568582820331</v>
+        <v>58.77918082245395</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>35474129</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2602124336</v>
@@ -4858,22 +4795,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>299.8867087280755</v>
+        <v>44.55843178205527</v>
       </c>
       <c r="E35">
-        <v>279.6763610839844</v>
+        <v>46.78635406494141</v>
       </c>
       <c r="F35">
-        <v>311.3327623979251</v>
+        <v>53.12456128813761</v>
       </c>
       <c r="G35">
-        <v>274.7053735580706</v>
+        <v>43.85822743778151</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>35474129</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>1754591852</v>
@@ -4986,22 +4923,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>34.73243046815878</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>37.2309684753418</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>38.4573574395426</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>30.93428457770854</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>35474129</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1372795296</v>
@@ -5114,22 +5051,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>43.8367249439768</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>43.2474479675293</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>47.5197095591415</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>41.70059414817069</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>35474129</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>1724204666</v>
@@ -5230,22 +5167,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>42.6894199636056</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>39.57597351074219</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>43.05080150995978</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>37.15749265772229</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>35474129</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>1628289697</v>
@@ -5358,22 +5295,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>36.03350380922711</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>41.30123138427734</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>43.05713820069029</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>32.12006519420992</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>35474129</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1387136716</v>
@@ -5486,22 +5423,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>31.23959479848472</v>
+        <v>33.42040529528817</v>
       </c>
       <c r="E40">
-        <v>28.76222801208496</v>
+        <v>30.23571395874023</v>
       </c>
       <c r="F40">
-        <v>31.50219696309808</v>
+        <v>33.42040529528817</v>
       </c>
       <c r="G40">
-        <v>28.63340577082776</v>
+        <v>27.277156061433</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>35474129</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1252745554</v>
@@ -5614,22 +5551,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>29.17324605295624</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>28.0793685913086</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>36.90648587484644</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>25.96770762983717</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>35474129</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1058027253</v>
@@ -5730,22 +5667,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>3590.70430246099</v>
+        <v>17.82369365106175</v>
       </c>
       <c r="E42">
-        <v>3714.694091796875</v>
+        <v>15.42658042907715</v>
       </c>
       <c r="F42">
-        <v>3714.694091796875</v>
+        <v>18.53896094174895</v>
       </c>
       <c r="G42">
-        <v>3048.748932944461</v>
+        <v>13.87039063364142</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>35474129</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>650068867</v>
@@ -5858,22 +5795,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>2937</v>
+        <v>18.59357894412627</v>
       </c>
       <c r="E43">
-        <v>3025</v>
+        <v>18.85934257507324</v>
       </c>
       <c r="F43">
-        <v>3125</v>
+        <v>20.9559198270967</v>
       </c>
       <c r="G43">
-        <v>2890</v>
+        <v>17.61911417473937</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>35474129</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>668410228</v>
